--- a/test/selenium/UserPagetTestCase4.xlsx
+++ b/test/selenium/UserPagetTestCase4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Music\event_catering_management\test\selenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281F5C83-9FB2-45B9-A796-58A11AEF7DF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CDD303-632F-42C3-BCB5-0750FDCEACBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,9 +99,6 @@
     <t>Ab</t>
   </si>
   <si>
-    <t>04/26/2020</t>
-  </si>
-  <si>
     <t>10:00AM</t>
   </si>
   <si>
@@ -117,12 +114,6 @@
     <t>Test</t>
   </si>
   <si>
-    <t>04/24/2020</t>
-  </si>
-  <si>
-    <t>04/25/2020</t>
-  </si>
-  <si>
     <t>Halls are open from 12pm to 2am on Saturday Please select a different time</t>
   </si>
   <si>
@@ -154,6 +145,15 @@
   </si>
   <si>
     <t>12:00PM</t>
+  </si>
+  <si>
+    <t>08/01/2020</t>
+  </si>
+  <si>
+    <t>08/02/2020</t>
+  </si>
+  <si>
+    <t>07/31/2020</t>
   </si>
 </sst>
 </file>
@@ -475,7 +475,7 @@
   <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -611,10 +611,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -644,13 +644,13 @@
         <v>7</v>
       </c>
       <c r="R3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" t="s">
         <v>26</v>
       </c>
-      <c r="S3" t="s">
+      <c r="V3" t="s">
         <v>27</v>
-      </c>
-      <c r="V3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -664,10 +664,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -679,7 +679,7 @@
         <v>101</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J4" t="s">
         <v>3</v>
@@ -697,10 +697,10 @@
         <v>7</v>
       </c>
       <c r="R4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="V4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -714,22 +714,22 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H5">
         <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J5" t="s">
         <v>3</v>
@@ -747,7 +747,7 @@
         <v>7</v>
       </c>
       <c r="R5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
@@ -761,22 +761,22 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H6">
         <v>51</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J6" t="s">
         <v>3</v>
@@ -794,7 +794,7 @@
         <v>7</v>
       </c>
       <c r="R6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
@@ -808,22 +808,22 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H7">
         <v>26</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J7" t="s">
         <v>3</v>
@@ -841,7 +841,7 @@
         <v>7</v>
       </c>
       <c r="R7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
@@ -855,22 +855,22 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H8">
         <v>76</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J8" t="s">
         <v>3</v>
@@ -888,7 +888,7 @@
         <v>7</v>
       </c>
       <c r="R8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
